--- a/biology/Médecine/Corpora_arenacea/Corpora_arenacea.xlsx
+++ b/biology/Médecine/Corpora_arenacea/Corpora_arenacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corpora arenacea[1],[2], aussi appelé acervuli [3] ou sable cérébral[4] (brain sand) ou corpus arenaceum[5] , ou concrétions de la pinéale[6] ou corps de psammoma[6] sont des structures calcifiées situées dans la glande pinéale ou d'autres zones du cerveau comme le plexus choroïdes. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corpora arenacea aussi appelé acervuli  ou sable cérébral (brain sand) ou corpus arenaceum , ou concrétions de la pinéale ou corps de psammoma sont des structures calcifiées situées dans la glande pinéale ou d'autres zones du cerveau comme le plexus choroïdes. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude indique que l'acervuli est principalement composés de sels de calcium et de magnésium[1]. Plusieurs études indiquent que l'acervuli est principalement composé de phosphate et de calcium[7],[8]: notamment le phosphate de calcium, le phosphate de magnésium, le carbonate de calcium et le phosphate d'ammonium.
-La concentration de corpora arenacea augmente avec l'âge[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude indique que l'acervuli est principalement composés de sels de calcium et de magnésium. Plusieurs études indiquent que l'acervuli est principalement composé de phosphate et de calcium,: notamment le phosphate de calcium, le phosphate de magnésium, le carbonate de calcium et le phosphate d'ammonium.
+La concentration de corpora arenacea augmente avec l'âge.
 </t>
         </is>
       </c>
